--- a/docs/VACACIONES.xlsx
+++ b/docs/VACACIONES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\Documents\Mirko\Python Projects\sms-vacaciones\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E716B9-CDB6-44DE-BA40-41885EED945E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4971D6-13EA-4193-BFF5-429499572AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,13 +94,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,15 +131,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -494,54 +488,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/docs/VACACIONES.xlsx
+++ b/docs/VACACIONES.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\Documents\Mirko\Python Projects\sms-vacaciones\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4971D6-13EA-4193-BFF5-429499572AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E36C3B-AC1C-45C9-BA5B-90D66741A994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,21 +18,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VACACIONES!$A$1:$C$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -65,18 +54,32 @@
     <t>JOSE LUIS VALVERDE</t>
   </si>
   <si>
-    <t>31.05.2024</t>
-  </si>
-  <si>
-    <t>29.05.2024</t>
+    <t>30.05.2024</t>
+  </si>
+  <si>
+    <t>10.06.2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -86,22 +89,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -131,16 +141,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,68 +494,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/VACACIONES.xlsx
+++ b/docs/VACACIONES.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\Documents\Mirko\Python Projects\sms-vacaciones\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E36C3B-AC1C-45C9-BA5B-90D66741A994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD8C448-A6C9-4425-8EEB-DF0ADD247F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VACACIONES" sheetId="1" r:id="rId1"/>
+    <sheet name="TEXTO" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VACACIONES!$A$1:$C$6</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ANALISTA</t>
   </si>
@@ -58,13 +59,28 @@
   </si>
   <si>
     <t>10.06.2024</t>
+  </si>
+  <si>
+    <t>TEXTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,Text,"Estimado Socio: Le informamos que su analista </t>
+  </si>
+  <si>
+    <t xml:space="preserve">, se encontra de vacaciones hasta el dia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">. Quien quedara a cargo de la cuenta comercial sera el/la analista </t>
+  </si>
+  <si>
+    <t>. Gracias por su comprension. Creditos y Cobranzas Distribuidores le desea un excelente dia"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +108,37 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -141,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -156,6 +203,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,7 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -543,7 +603,7 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -557,4 +617,48 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B817D6-5F5B-4E7D-BA1B-F7151ACF29A1}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.36328125" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="78.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="12.36328125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/VACACIONES.xlsx
+++ b/docs/VACACIONES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\Documents\Mirko\Python Projects\sms-vacaciones\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD8C448-A6C9-4425-8EEB-DF0ADD247F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE40D0B-401C-49B2-A6EE-6BE2171AF827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>ANALISTA</t>
   </si>
@@ -554,7 +554,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -610,8 +612,12 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
